--- a/Barroc IT - Documentatie/Tom/Groep 1 - Agenda - 07-10-2015/agenda 07-10-2015.xlsx
+++ b/Barroc IT - Documentatie/Tom/Groep 1 - Agenda - 07-10-2015/agenda 07-10-2015.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Documents\GitHub\BarrocIT\Barroc IT - Documentatie\Tom\Groep 1 - Agenda - 07-10-2015\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -26,7 +21,7 @@
     <author>Fer</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0" shapeId="0">
+    <comment ref="H19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -183,12 +178,6 @@
     <t>Welkom / Vaststellen Voorzitter / Notulist</t>
   </si>
   <si>
-    <t>Afsluiting en rondvraag.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Het vaststellen volgende vergadering. </t>
-  </si>
-  <si>
     <t>Mededelingen bespreken. (Alleen de mededelingen. Daarna een rondvragen)</t>
   </si>
   <si>
@@ -202,6 +191,12 @@
   </si>
   <si>
     <t>Datum: 12-10-2015</t>
+  </si>
+  <si>
+    <t>Het vaststellen volgende vergadering. (Datum nieuwe vergadering.)</t>
+  </si>
+  <si>
+    <t>Afsluiting en rondvraag. (Vraag teamleden om opmerkingen)</t>
   </si>
 </sst>
 </file>
@@ -837,7 +832,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -872,7 +867,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1087,7 +1082,7 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,7 +1118,7 @@
       <c r="C3" s="72"/>
       <c r="D3" s="73"/>
       <c r="E3" s="74" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" s="75"/>
       <c r="G3" s="75"/>
@@ -1144,7 +1139,7 @@
     </row>
     <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="86" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="87"/>
       <c r="D5" s="88"/>
@@ -1217,7 +1212,7 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="36"/>
@@ -1257,7 +1252,7 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G11" s="39"/>
       <c r="H11" s="37"/>
@@ -1277,7 +1272,7 @@
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="59"/>
       <c r="H12" s="37"/>
@@ -1297,7 +1292,7 @@
         <v>6</v>
       </c>
       <c r="F13" s="55" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G13" s="39"/>
       <c r="H13" s="37"/>
@@ -1317,7 +1312,7 @@
         <v>7</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G14" s="62"/>
       <c r="H14" s="37"/>
@@ -1689,18 +1684,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1719,6 +1714,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D4A539-5E71-46A4-A076-A8448D6640BC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC78C7E-41AD-4518-BFAA-0ABA4B09AB48}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1730,12 +1733,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D4A539-5E71-46A4-A076-A8448D6640BC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>